--- a/src/test/java/com/test/mainlinetestvismc/repository/TestData.xlsx
+++ b/src/test/java/com/test/mainlinetestvismc/repository/TestData.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2835" windowWidth="9090" windowHeight="6105"/>
   </bookViews>
   <sheets>
     <sheet name="OrderDetail" sheetId="1" r:id="rId1"/>
     <sheet name="PatientDetail" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:H18"/>
 </workbook>
 </file>
 
@@ -33,9 +34,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>kannact-admin@maikannact.com</t>
-  </si>
-  <si>
     <t>Secret1234!</t>
   </si>
   <si>
@@ -313,6 +311,9 @@
   </si>
   <si>
     <t>999977775'</t>
+  </si>
+  <si>
+    <t>kannact-admin@indiastaging.vismc.com</t>
   </si>
 </sst>
 </file>
@@ -696,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,10 +728,10 @@
         <v>63123</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -746,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,211 +759,211 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>75</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>76</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>77</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" t="s">
         <v>90</v>
-      </c>
-      <c r="I2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" t="s">
-        <v>91</v>
       </c>
       <c r="M2">
         <v>47600</v>
       </c>
       <c r="N2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="P2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="T2" t="s">
+        <v>86</v>
+      </c>
+      <c r="U2" t="s">
         <v>87</v>
       </c>
-      <c r="U2" t="s">
-        <v>88</v>
-      </c>
       <c r="V2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Y2" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="Z2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA2" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" t="s">
-        <v>88</v>
-      </c>
       <c r="AB2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD2" t="s">
         <v>87</v>
       </c>
-      <c r="AD2" t="s">
-        <v>88</v>
-      </c>
       <c r="AE2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
         <v>8</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>9</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
         <v>11</v>
-      </c>
-      <c r="B43" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -987,109 +988,109 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>31</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>33</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>35</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>37</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>38</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>39</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>40</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>41</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>42</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>43</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" t="s">
-        <v>47</v>
-      </c>
       <c r="AB1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC1" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>16</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>17</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>18</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>19</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
